--- a/gestures.xlsx
+++ b/gestures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan J Billava\Desktop\finalyearproject\mousepy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0294D13E-76BF-4F60-8E92-D78C610EFFBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31AFE93-2B58-49A5-9849-0620D2084C70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E603B663-1882-4475-AA6D-2B80B8BEF544}"/>
+    <workbookView xWindow="410" yWindow="200" windowWidth="9220" windowHeight="7360" xr2:uid="{E603B663-1882-4475-AA6D-2B80B8BEF544}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Gestures</t>
   </si>
@@ -93,9 +93,6 @@
     <t>sliding 2 fingers up</t>
   </si>
   <si>
-    <t>upper workspaace</t>
-  </si>
-  <si>
     <t>fullscreen</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>sliding 2 fingers down</t>
   </si>
   <si>
-    <t>lowwer workspace</t>
-  </si>
-  <si>
     <t>small window</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>decreasing volume</t>
   </si>
   <si>
-    <t>lower workspace</t>
-  </si>
-  <si>
     <t>swiping up</t>
   </si>
   <si>
@@ -154,6 +145,12 @@
   </si>
   <si>
     <t>sliding two fingers right</t>
+  </si>
+  <si>
+    <t>virtual keyword</t>
+  </si>
+  <si>
+    <t>opens youtube</t>
   </si>
 </sst>
 </file>
@@ -516,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCB8063-8A0A-4A13-8862-9AEF1863EDBB}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +561,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -612,44 +609,44 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>25</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
+      <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
       <c r="K12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -657,34 +654,34 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/gestures.xlsx
+++ b/gestures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohan J Billava\Desktop\finalyearproject\mousepy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31AFE93-2B58-49A5-9849-0620D2084C70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE433D-E845-4C7C-8E99-03FB02ABD11E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="410" yWindow="200" windowWidth="9220" windowHeight="7360" xr2:uid="{E603B663-1882-4475-AA6D-2B80B8BEF544}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E603B663-1882-4475-AA6D-2B80B8BEF544}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCB8063-8A0A-4A13-8862-9AEF1863EDBB}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
